--- a/Excel/excel/xls/J角色模型.xlsx
+++ b/Excel/excel/xls/J角色模型.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="模型信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,31 +171,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述语言ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>职业ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI界面显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述语言ID</t>
+    <t>传送门（触发前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门出口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,12 +291,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -582,7 +625,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -895,6 +938,110 @@
       </c>
       <c r="G20" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -908,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,16 +1072,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">

--- a/Excel/excel/xls/J角色模型.xlsx
+++ b/Excel/excel/xls/J角色模型.xlsx
@@ -219,23 +219,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>传送门入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>普通能量点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>掉落能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>稀有能量点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落能量点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送门出口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -986,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1027,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>18</v>

--- a/Excel/excel/xls/J角色模型.xlsx
+++ b/Excel/excel/xls/J角色模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>稀有能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克制职业编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1053,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1068,7 @@
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1087,11 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1097,8 +1104,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1111,8 +1121,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1123,6 +1136,9 @@
         <v>1</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
     </row>

--- a/Excel/excel/xls/J角色模型.xlsx
+++ b/Excel/excel/xls/J角色模型.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="模型信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,51 +112,6 @@
   </si>
   <si>
     <t>jing_ling_nan_002_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_002_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_003_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_003_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_004_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_004_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_005_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_005_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_006_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_006_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_007_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_007_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_008_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_008_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nan_009_ty</t>
-  </si>
-  <si>
-    <t>jing_ling_nv_009_ty</t>
   </si>
   <si>
     <t>老虎</t>
@@ -303,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -615,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -629,7 +584,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -700,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -717,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -734,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -751,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -768,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -785,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -802,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -819,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -836,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -853,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -870,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -887,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -904,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -921,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -938,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -949,7 +904,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -960,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -971,7 +926,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -982,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -990,7 +945,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -998,7 +953,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -1009,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1020,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -1031,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -1042,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -1059,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1076,19 +1031,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1096,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1113,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1130,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Excel/excel/xls/J角色模型.xlsx
+++ b/Excel/excel/xls/J角色模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
+    <workbookView xWindow="11460" yWindow="240" windowWidth="14805" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="模型信息" sheetId="1" r:id="rId1"/>
@@ -547,11 +547,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F20"/>
+      <selection activeCell="F3" sqref="F3:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
